--- a/export/export_files/Action Target 1 Orange SelfAdhesive Target Spots 10 Sheets/Action Target 1 Orange SelfAdhe.xlsx
+++ b/export/export_files/Action Target 1 Orange SelfAdhesive Target Spots 10 Sheets/Action Target 1 Orange SelfAdhe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,34 +448,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.pelicansalessupply.com/products/action-target-1-orange-self-adhesive-target-spots-10-sheets?srsltid=AfmBOoqYJ-ikTe14MrugIpqYCCPipEy69Yn7PAOSij8IbYSuMDiMS4mh</t>
+          <t>https://www.labelvalue.com/self-adhesive-target-spots-1-630-targets-p-1295.html?srsltid=AfmBOopxfgHTgMxEsoF0cSoc4WLil0BpVj3VGkEGedljbiBUKZWu_Et3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.cabelas.ca/product/26915/birchwood-target-spots-self-adhesive-targets</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.labelvalue.com/self-adhesive-target-spots-1-630-targets-p-1295.html?srsltid=AfmBOorua046kSW3wmpOM-gDoclbVDf-3VzUldqjwqHsUkM1rBUDgrH9</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>11.3</t>
         </is>
